--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD784A97-82CC-4621-83C9-3371EB8AE3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C848DAC-1717-4C12-AD39-B3A21567EB34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T074430.034" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T065621.738" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="123">
   <si>
     <t>Do Ty</t>
   </si>
@@ -335,6 +335,48 @@
   </si>
   <si>
     <t>050.005-24.22680A57</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002550</t>
+  </si>
+  <si>
+    <t>GATEWAY GLOBAL STANDARD SERVIC</t>
+  </si>
+  <si>
+    <t>INFP/2403953</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002604</t>
+  </si>
+  <si>
+    <t>PT.SURYA SUDECO (TUNAS RENTAL)</t>
+  </si>
+  <si>
+    <t>312BILL2401000106</t>
+  </si>
+  <si>
+    <t>010.002-24.86291323</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002605</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0392</t>
+  </si>
+  <si>
+    <t>041.005-24.17521619</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002609</t>
+  </si>
+  <si>
+    <t>NSA-2024-0504</t>
+  </si>
+  <si>
+    <t>040.005-24.17521731</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1189,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ19"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3191,68 +3233,854 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>24002550</v>
+      </c>
+      <c r="D16">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45342</v>
+      </c>
       <c r="F16" t="s">
         <v>105</v>
       </c>
       <c r="G16">
-        <v>68.48</v>
+        <v>5.82</v>
       </c>
       <c r="H16">
-        <v>68.48</v>
+        <v>5.82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
       </c>
       <c r="L16" s="2">
-        <v>1081686</v>
+        <v>91998</v>
       </c>
       <c r="N16" s="2">
-        <v>1081686</v>
-      </c>
-      <c r="AG16">
+        <v>91998</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2104290</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>57436438</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP16">
+        <v>1204</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX16">
+        <v>24001130</v>
+      </c>
+      <c r="AY16">
+        <v>920700</v>
+      </c>
+      <c r="AZ16">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24002597</v>
+      </c>
+      <c r="D17">
+        <v>1204</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>0.68</v>
+      </c>
+      <c r="H17">
+        <v>0.68</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10800</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2105150</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
         <v>1</v>
       </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>57341543</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP17">
+        <v>1204</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17">
+        <v>920700</v>
+      </c>
+      <c r="AZ17">
+        <v>1204.9206999999999</v>
+      </c>
     </row>
-    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17">
-        <v>68.48</v>
-      </c>
-      <c r="H17">
-        <v>68.48</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1081686</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1081686</v>
-      </c>
-      <c r="AG17">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24002601</v>
+      </c>
+      <c r="D18">
+        <v>1204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>0.68</v>
+      </c>
+      <c r="H18">
+        <v>0.68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10800</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2105194</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
         <v>1</v>
       </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18">
+        <v>57341527</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP18">
+        <v>1204</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18">
+        <v>920700</v>
+      </c>
+      <c r="AZ18">
+        <v>1204.9206999999999</v>
+      </c>
     </row>
-    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18">
-        <v>68.48</v>
-      </c>
-      <c r="H18">
-        <v>68.48</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1081686</v>
-      </c>
-      <c r="N18" s="2">
-        <v>1081686</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>24002604</v>
+      </c>
+      <c r="D19">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45345</v>
+      </c>
       <c r="F19" t="s">
         <v>108</v>
+      </c>
+      <c r="G19">
+        <v>97.87</v>
+      </c>
+      <c r="H19">
+        <v>97.87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1546600</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1546600</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2105298</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>55497042</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45302</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP19">
+        <v>1204</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX19">
+        <v>24001160</v>
+      </c>
+      <c r="AY19">
+        <v>920700</v>
+      </c>
+      <c r="AZ19">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>24002605</v>
+      </c>
+      <c r="D20">
+        <v>1204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20">
+        <v>13.38</v>
+      </c>
+      <c r="H20">
+        <v>13.38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>211404</v>
+      </c>
+      <c r="N20" s="2">
+        <v>211404</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2105313</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>55417891</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20">
+        <v>24001157</v>
+      </c>
+      <c r="AY20">
+        <v>920700</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>24002609</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2">
+        <v>6301</v>
+      </c>
+      <c r="N21" s="2">
+        <v>6301</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2105324</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>55417891</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21">
+        <v>24001158</v>
+      </c>
+      <c r="AY21">
+        <v>920700</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22">
+        <v>187.31</v>
+      </c>
+      <c r="H22">
+        <v>187.31</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>187.31</v>
+      </c>
+      <c r="H23">
+        <v>187.31</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24">
+        <v>187.31</v>
+      </c>
+      <c r="H24">
+        <v>187.31</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2959589</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C848DAC-1717-4C12-AD39-B3A21567EB34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE342E2-A098-4C7A-A046-99CC1D51CDE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T065621.738" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070044.337" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="144">
   <si>
     <t>Do Ty</t>
   </si>
@@ -377,6 +377,69 @@
   </si>
   <si>
     <t>040.005-24.17521731</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002616</t>
+  </si>
+  <si>
+    <t>IV70000024</t>
+  </si>
+  <si>
+    <t>050.005-24.22680041</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002620</t>
+  </si>
+  <si>
+    <t>IV70000025</t>
+  </si>
+  <si>
+    <t>05A.005-24.22680042</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002621</t>
+  </si>
+  <si>
+    <t>IV70000047</t>
+  </si>
+  <si>
+    <t>050.005-24.22680068</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002622</t>
+  </si>
+  <si>
+    <t>IV70000049</t>
+  </si>
+  <si>
+    <t>050.005-24.22680066</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002623</t>
+  </si>
+  <si>
+    <t>IV70000046</t>
+  </si>
+  <si>
+    <t>050.005-24,22680069</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002624</t>
+  </si>
+  <si>
+    <t>IV70000061</t>
+  </si>
+  <si>
+    <t>050.005-24.22680083</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24002659</t>
+  </si>
+  <si>
+    <t>PT.RENTOKIL INDONESIA</t>
+  </si>
+  <si>
+    <t>010.005-24.20903406</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1231,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4019,68 +4082,985 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>24002616</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45346</v>
+      </c>
       <c r="F22" t="s">
         <v>119</v>
       </c>
       <c r="G22">
-        <v>187.31</v>
+        <v>15.34</v>
       </c>
       <c r="H22">
-        <v>187.31</v>
+        <v>15.34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
       </c>
       <c r="L22" s="2">
-        <v>2959589</v>
+        <v>242495</v>
       </c>
       <c r="N22" s="2">
-        <v>2959589</v>
-      </c>
-      <c r="AG22">
+        <v>242495</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2105381</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22">
         <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>55229662</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22">
+        <v>24001097</v>
+      </c>
+      <c r="AY22">
+        <v>920700</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.9206999999999</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>24002620</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45346</v>
+      </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23">
-        <v>187.31</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="H23">
-        <v>187.31</v>
+        <v>36.020000000000003</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
       </c>
       <c r="L23" s="2">
-        <v>2959589</v>
+        <v>569168</v>
       </c>
       <c r="N23" s="2">
-        <v>2959589</v>
-      </c>
-      <c r="AG23">
+        <v>569168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2105382</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23">
         <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>55229662</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45307</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23">
+        <v>24001163</v>
+      </c>
+      <c r="AY23">
+        <v>920700</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.9206999999999</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>24002621</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45346</v>
+      </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G24">
-        <v>187.31</v>
+        <v>13.37</v>
       </c>
       <c r="H24">
-        <v>187.31</v>
+        <v>13.37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
       </c>
       <c r="L24" s="2">
-        <v>2959589</v>
+        <v>211216</v>
       </c>
       <c r="N24" s="2">
-        <v>2959589</v>
-      </c>
-      <c r="AG24">
+        <v>211216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2105382</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24">
         <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>55229662</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX24">
+        <v>24001163</v>
+      </c>
+      <c r="AY24">
+        <v>920700</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.9206999999999</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>24002622</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45346</v>
+      </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>13.37</v>
+      </c>
+      <c r="H25">
+        <v>13.37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>211216</v>
+      </c>
+      <c r="N25" s="2">
+        <v>211216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2105382</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>55229662</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX25">
+        <v>24001163</v>
+      </c>
+      <c r="AY25">
+        <v>920700</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>24002623</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26">
+        <v>6.85</v>
+      </c>
+      <c r="H26">
+        <v>6.85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>108172</v>
+      </c>
+      <c r="N26" s="2">
+        <v>108172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2105382</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>55229662</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX26">
+        <v>24001163</v>
+      </c>
+      <c r="AY26">
+        <v>920700</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>24002624</v>
+      </c>
+      <c r="D27">
+        <v>1204</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27">
+        <v>3.77</v>
+      </c>
+      <c r="H27">
+        <v>3.77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <v>59521</v>
+      </c>
+      <c r="N27" s="2">
+        <v>59521</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15803</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2105382</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>55229662</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27">
+        <v>1204</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX27">
+        <v>24001163</v>
+      </c>
+      <c r="AY27">
+        <v>920700</v>
+      </c>
+      <c r="AZ27">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>24002659</v>
+      </c>
+      <c r="D28">
+        <v>1204</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28">
+        <v>15.31</v>
+      </c>
+      <c r="H28">
+        <v>15.31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2">
+        <v>242000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>242000</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15803</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2105873</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>55117880</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL28">
+        <v>24.20903406</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45321</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP28">
+        <v>1204</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX28">
+        <v>24001172</v>
+      </c>
+      <c r="AY28">
+        <v>920700</v>
+      </c>
+      <c r="AZ28">
+        <v>1204.9206999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="H29">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="H30">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="L30" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="H31">
+        <v>291.33999999999997</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4603377</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
